--- a/results/nodeWaitTime_requestJobs_Prediction_v12_500000_test1.xlsx
+++ b/results/nodeWaitTime_requestJobs_Prediction_v12_500000_test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model_fit\training\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BA9479-E0EB-4F2A-970C-1E435ADAF964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D66E417-5278-4D65-ADCA-0EC81A058195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14424" yWindow="2040" windowWidth="20232" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14772" yWindow="2388" windowWidth="20232" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
